--- a/senior-project-main/ride_data.xlsx
+++ b/senior-project-main/ride_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trojan\Downloads\senior-project-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DFDC1D-67CF-4C93-AEA2-48CCB524D97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B79E9E3-CF6D-40E5-8BD9-8E6ECFB2C351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="5250" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="4110" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Token</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>p4</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Owner</t>
   </si>
 </sst>
 </file>
@@ -417,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +471,14 @@
       <c r="M1" t="s">
         <v>24</v>
       </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -489,7 +501,7 @@
         <v>-115</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -512,7 +524,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -535,7 +547,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>

--- a/senior-project-main/ride_data.xlsx
+++ b/senior-project-main/ride_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trojan\Downloads\senior-project-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trojan\source\repos\shuttle-og\shuttle-og\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B79E9E3-CF6D-40E5-8BD9-8E6ECFB2C351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FF8D21-D916-42A7-BB7E-ACA9AA3116AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="4110" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Token</t>
   </si>
@@ -82,30 +82,6 @@
   </si>
   <si>
     <t>coordy</t>
-  </si>
-  <si>
-    <t>coordxd</t>
-  </si>
-  <si>
-    <t>coordyd</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Owner</t>
   </si>
 </sst>
 </file>
@@ -423,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,32 +429,8 @@
       <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -501,7 +453,7 @@
         <v>-115</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -524,7 +476,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -547,7 +499,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>

--- a/senior-project-main/ride_data.xlsx
+++ b/senior-project-main/ride_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trojan\source\repos\shuttle-og\shuttle-og\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trojan\Downloads\senior-project-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FF8D21-D916-42A7-BB7E-ACA9AA3116AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B79E9E3-CF6D-40E5-8BD9-8E6ECFB2C351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="4110" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Token</t>
   </si>
@@ -82,6 +82,30 @@
   </si>
   <si>
     <t>coordy</t>
+  </si>
+  <si>
+    <t>coordxd</t>
+  </si>
+  <si>
+    <t>coordyd</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Owner</t>
   </si>
 </sst>
 </file>
@@ -399,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,8 +453,32 @@
       <c r="G1" t="s">
         <v>18</v>
       </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -453,7 +501,7 @@
         <v>-115</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -476,7 +524,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -499,7 +547,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
